--- a/deep_seq_batch/figures/SBharadwaj_20240318_Sample_1_4_7_8_Monocyte_Macrophages_gene_ranking.xlsx
+++ b/deep_seq_batch/figures/SBharadwaj_20240318_Sample_1_4_7_8_Monocyte_Macrophages_gene_ranking.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,22 +461,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Gm36043</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6530413G14Rik</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Thbs1</t>
         </is>
       </c>
     </row>
@@ -486,22 +486,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Fth1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>Cd74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Tmem189</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>6530413G14Rik</t>
         </is>
       </c>
     </row>
@@ -511,22 +511,222 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6530413G14Rik</t>
+          <t>Cd74</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>H2-Eb1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Malt1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Tmem132a</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Csf2rb2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Tmem132a</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Malat1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Gm36043</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fth1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Tmem189</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6530413G14Rik</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Gm26759</t>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>H2-Eb1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Cd74</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Malt1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Malt1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tmem132a</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Csf2rb2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>H2-Eb1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Thbs1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Csf2rb2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Malat1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Thbs1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Csf2rb2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Tmem189</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Il1b</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tmem132a</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Cd74</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Gm36043</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Malt1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Malat1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Gm36043</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Fth1</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>H2-Eb1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tmem189</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Il1b</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Thbs1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Fth1</t>
         </is>
       </c>
     </row>
